--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H2">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I2">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J2">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>85.89497033333333</v>
+        <v>164.855011</v>
       </c>
       <c r="N2">
-        <v>257.684911</v>
+        <v>494.565033</v>
       </c>
       <c r="O2">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256036</v>
       </c>
       <c r="P2">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256037</v>
       </c>
       <c r="Q2">
-        <v>13456.0008675904</v>
+        <v>4562.584599028158</v>
       </c>
       <c r="R2">
-        <v>121104.0078083136</v>
+        <v>41063.26139125341</v>
       </c>
       <c r="S2">
-        <v>0.05271127618497505</v>
+        <v>0.005307860654461095</v>
       </c>
       <c r="T2">
-        <v>0.05271127618497505</v>
+        <v>0.005307860654461095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H3">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I3">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J3">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.180317</v>
       </c>
       <c r="O3">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703988999</v>
       </c>
       <c r="P3">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703989001</v>
       </c>
       <c r="Q3">
-        <v>270.5100185178996</v>
+        <v>47.79075143851455</v>
       </c>
       <c r="R3">
-        <v>2434.590166661097</v>
+        <v>430.116762946631</v>
       </c>
       <c r="S3">
-        <v>0.001059670583943199</v>
+        <v>5.559713879314216E-05</v>
       </c>
       <c r="T3">
-        <v>0.001059670583943199</v>
+        <v>5.559713879314217E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H4">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I4">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J4">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.600318333333334</v>
+        <v>4.66298</v>
       </c>
       <c r="N4">
-        <v>10.800955</v>
+        <v>13.98894</v>
       </c>
       <c r="O4">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701085</v>
       </c>
       <c r="P4">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701086</v>
       </c>
       <c r="Q4">
-        <v>564.0130781689617</v>
+        <v>129.0542556427133</v>
       </c>
       <c r="R4">
-        <v>5076.117703520655</v>
+        <v>1161.48830078442</v>
       </c>
       <c r="S4">
-        <v>0.002209411951429656</v>
+        <v>0.0001501346420979523</v>
       </c>
       <c r="T4">
-        <v>0.002209411951429656</v>
+        <v>0.0001501346420979524</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H5">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I5">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J5">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.21376166666667</v>
+        <v>14.04531966666667</v>
       </c>
       <c r="N5">
-        <v>54.641285</v>
+        <v>42.135959</v>
       </c>
       <c r="O5">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339644</v>
       </c>
       <c r="P5">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339645</v>
       </c>
       <c r="Q5">
-        <v>2853.303189204798</v>
+        <v>388.7231501841375</v>
       </c>
       <c r="R5">
-        <v>25679.72870284318</v>
+        <v>3498.508351657237</v>
       </c>
       <c r="S5">
-        <v>0.0111772623921194</v>
+        <v>0.000452219190583346</v>
       </c>
       <c r="T5">
-        <v>0.0111772623921194</v>
+        <v>0.0004522191905833462</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>126.902076</v>
       </c>
       <c r="I6">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J6">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>85.89497033333333</v>
+        <v>164.855011</v>
       </c>
       <c r="N6">
-        <v>257.684911</v>
+        <v>494.565033</v>
       </c>
       <c r="O6">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256036</v>
       </c>
       <c r="P6">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256037</v>
       </c>
       <c r="Q6">
-        <v>3633.416684419471</v>
+        <v>6973.481044967612</v>
       </c>
       <c r="R6">
-        <v>32700.75015977523</v>
+        <v>62761.3294047085</v>
       </c>
       <c r="S6">
-        <v>0.01423320585604475</v>
+        <v>0.008112565336563394</v>
       </c>
       <c r="T6">
-        <v>0.01423320585604475</v>
+        <v>0.008112565336563394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>126.902076</v>
       </c>
       <c r="I7">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J7">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>5.180317</v>
       </c>
       <c r="O7">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703988999</v>
       </c>
       <c r="P7">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703989001</v>
       </c>
       <c r="Q7">
         <v>73.04366462645466</v>
@@ -883,10 +883,10 @@
         <v>657.3929816380919</v>
       </c>
       <c r="S7">
-        <v>0.0002861344033472266</v>
+        <v>8.497499281678911E-05</v>
       </c>
       <c r="T7">
-        <v>0.0002861344033472266</v>
+        <v>8.497499281678912E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>126.902076</v>
       </c>
       <c r="I8">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J8">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.600318333333334</v>
+        <v>4.66298</v>
       </c>
       <c r="N8">
-        <v>10.800955</v>
+        <v>13.98894</v>
       </c>
       <c r="O8">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701085</v>
       </c>
       <c r="P8">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701086</v>
       </c>
       <c r="Q8">
-        <v>152.2959569202867</v>
+        <v>197.24728078216</v>
       </c>
       <c r="R8">
-        <v>1370.66361228258</v>
+        <v>1775.22552703944</v>
       </c>
       <c r="S8">
-        <v>0.0005965899026073586</v>
+        <v>0.0002294666670040644</v>
       </c>
       <c r="T8">
-        <v>0.0005965899026073586</v>
+        <v>0.0002294666670040644</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>126.902076</v>
       </c>
       <c r="I9">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J9">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.21376166666667</v>
+        <v>14.04531966666667</v>
       </c>
       <c r="N9">
-        <v>54.641285</v>
+        <v>42.135959</v>
       </c>
       <c r="O9">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339644</v>
       </c>
       <c r="P9">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339645</v>
       </c>
       <c r="Q9">
-        <v>770.4547224230733</v>
+        <v>594.1267412612093</v>
       </c>
       <c r="R9">
-        <v>6934.09250180766</v>
+        <v>5347.140671350884</v>
       </c>
       <c r="S9">
-        <v>0.003018107092983067</v>
+        <v>0.0006911744615925087</v>
       </c>
       <c r="T9">
-        <v>0.003018107092983067</v>
+        <v>0.0006911744615925089</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H10">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I10">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J10">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>85.89497033333333</v>
+        <v>164.855011</v>
       </c>
       <c r="N10">
-        <v>257.684911</v>
+        <v>494.565033</v>
       </c>
       <c r="O10">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256036</v>
       </c>
       <c r="P10">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256037</v>
       </c>
       <c r="Q10">
-        <v>2020.373620050534</v>
+        <v>4878.554670233021</v>
       </c>
       <c r="R10">
-        <v>18183.36258045481</v>
+        <v>43906.99203209719</v>
       </c>
       <c r="S10">
-        <v>0.007914422192096078</v>
+        <v>0.005675442903630304</v>
       </c>
       <c r="T10">
-        <v>0.007914422192096076</v>
+        <v>0.005675442903630305</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H11">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I11">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J11">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.180317</v>
       </c>
       <c r="O11">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703988999</v>
       </c>
       <c r="P11">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703989001</v>
       </c>
       <c r="Q11">
-        <v>40.61617643688622</v>
+        <v>51.10037711387799</v>
       </c>
       <c r="R11">
-        <v>365.545587931976</v>
+        <v>459.903394024902</v>
       </c>
       <c r="S11">
-        <v>0.0001591060014642944</v>
+        <v>5.944737576343256E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001591060014642944</v>
+        <v>5.944737576343258E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H12">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I12">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J12">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.600318333333334</v>
+        <v>4.66298</v>
       </c>
       <c r="N12">
-        <v>10.800955</v>
+        <v>13.98894</v>
       </c>
       <c r="O12">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701085</v>
       </c>
       <c r="P12">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701086</v>
       </c>
       <c r="Q12">
-        <v>84.6846812592489</v>
+        <v>137.99157646596</v>
       </c>
       <c r="R12">
-        <v>762.16213133324</v>
+        <v>1241.92418819364</v>
       </c>
       <c r="S12">
-        <v>0.0003317358304609116</v>
+        <v>0.0001605318309115277</v>
       </c>
       <c r="T12">
-        <v>0.0003317358304609115</v>
+        <v>0.0001605318309115277</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H13">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I13">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J13">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.21376166666667</v>
+        <v>14.04531966666667</v>
       </c>
       <c r="N13">
-        <v>54.641285</v>
+        <v>42.135959</v>
       </c>
       <c r="O13">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339644</v>
       </c>
       <c r="P13">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339645</v>
       </c>
       <c r="Q13">
-        <v>428.4139507868312</v>
+        <v>415.643172986306</v>
       </c>
       <c r="R13">
-        <v>3855.72555708148</v>
+        <v>3740.788556876754</v>
       </c>
       <c r="S13">
-        <v>0.001678228643386288</v>
+        <v>0.0004835364684874667</v>
       </c>
       <c r="T13">
-        <v>0.001678228643386288</v>
+        <v>0.0004835364684874668</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H14">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I14">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J14">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>85.89497033333333</v>
+        <v>164.855011</v>
       </c>
       <c r="N14">
-        <v>257.684911</v>
+        <v>494.565033</v>
       </c>
       <c r="O14">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256036</v>
       </c>
       <c r="P14">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256037</v>
       </c>
       <c r="Q14">
-        <v>181254.6744640281</v>
+        <v>748373.959196555</v>
       </c>
       <c r="R14">
-        <v>1631292.070176253</v>
+        <v>6735365.632768994</v>
       </c>
       <c r="S14">
-        <v>0.7100300675888714</v>
+        <v>0.8706172141309487</v>
       </c>
       <c r="T14">
-        <v>0.7100300675888714</v>
+        <v>0.8706172141309489</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H15">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I15">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J15">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>5.180317</v>
       </c>
       <c r="O15">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703988999</v>
       </c>
       <c r="P15">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703989001</v>
       </c>
       <c r="Q15">
-        <v>3643.817046996091</v>
+        <v>7838.836319799462</v>
       </c>
       <c r="R15">
-        <v>32794.35342296482</v>
+        <v>70549.52687819516</v>
       </c>
       <c r="S15">
-        <v>0.01427394726128058</v>
+        <v>0.009119272196615635</v>
       </c>
       <c r="T15">
-        <v>0.01427394726128058</v>
+        <v>0.009119272196615638</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H16">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I16">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J16">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.600318333333334</v>
+        <v>4.66298</v>
       </c>
       <c r="N16">
-        <v>10.800955</v>
+        <v>13.98894</v>
       </c>
       <c r="O16">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701085</v>
       </c>
       <c r="P16">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701086</v>
       </c>
       <c r="Q16">
-        <v>7597.354361294428</v>
+        <v>21168.01171578795</v>
       </c>
       <c r="R16">
-        <v>68376.18925164985</v>
+        <v>190512.1054420916</v>
       </c>
       <c r="S16">
-        <v>0.02976116365880018</v>
+        <v>0.02462570371699731</v>
       </c>
       <c r="T16">
-        <v>0.02976116365880018</v>
+        <v>0.02462570371699731</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H17">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I17">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J17">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.21376166666667</v>
+        <v>14.04531966666667</v>
       </c>
       <c r="N17">
-        <v>54.641285</v>
+        <v>42.135959</v>
       </c>
       <c r="O17">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339644</v>
       </c>
       <c r="P17">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339645</v>
       </c>
       <c r="Q17">
-        <v>38434.49073729885</v>
+        <v>63759.97564990348</v>
       </c>
       <c r="R17">
-        <v>345910.4166356897</v>
+        <v>573839.7808491314</v>
       </c>
       <c r="S17">
-        <v>0.1505596704561905</v>
+        <v>0.07417485829273311</v>
       </c>
       <c r="T17">
-        <v>0.1505596704561905</v>
+        <v>0.07417485829273314</v>
       </c>
     </row>
   </sheetData>
